--- a/biology/Botanique/Gare_de_Grisy-Suisnes/Gare_de_Grisy-Suisnes.xlsx
+++ b/biology/Botanique/Gare_de_Grisy-Suisnes/Gare_de_Grisy-Suisnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La gare de Grisy-Suisnes est une ancienne gare ferroviaire française de la ligne de Paris-Bastille à Marles-en-Brie (dite aussi ligne de Vincennes), située sur le territoire de la commune de Grisy-Suisnes, dans le département de Seine-et-Marne en région Île-de-France.
@@ -513,7 +525,9 @@
           <t>Situation ferroviaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Établie à 98 m d'altitude, la gare de Grisy-Suisnes est située au point kilométrique (PK) 40,416 de la ligne de Paris-Bastille à Marles-en-Brie, entre les gares de Brie-Comte-Robert (fermée) et Coubert - Soignolles (fermée). Le tronçon de ligne qui passe en gare, fermé et déclassé, fait partie du Chemin des Roses.
 </t>
@@ -544,12 +558,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Compagnie des chemins de fer de l'Est met en service la gare lors de l'ouverture du prolongement de la ligne de Vincennes jusqu'à Verneuil-l’Étang le 1er juillet 1892.
 La gare est fermée au trafic de voyageurs dès le 17 juillet 1939 du fait de sa faible desserte. Toutefois, le déclenchement de la Seconde Guerre mondiale provoque un retour provisoire du trafic. La gare est même rouverte un temps au trafic, avec quelques trains par jour. Après guerre, les fermetures reprennent : le tronçon entre Brie-Comte-Robert et Verneuil-l'Étang est fermé au trafic voyageurs en 1947. L’activité de cette section est dès lors limitée au trafic de marchandises, avec passage en voie unique en 1963-1964.
 Depuis la gare n'est plus réutilisée. Le bâtiment voyageurs est devenu un local pour les associations.
-Il abrite depuis l'été 2013 le musée de la Rose, ouvert tous les dimanches[1].
+Il abrite depuis l'été 2013 le musée de la Rose, ouvert tous les dimanches.
 </t>
         </is>
       </c>
